--- a/biology/Botanique/Parc_de_la_Borie/Parc_de_la_Borie.xlsx
+++ b/biology/Botanique/Parc_de_la_Borie/Parc_de_la_Borie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Borie est un espace vert de la ville de Limoges, d'une superficie d'environ seize hectares. Jouxtant le campus universitaire de la Borie, qui accueille notamment la faculté des sciences et techniques, le Centre de droit et d’économie du sport et l'IUT du Limousin, il s'agit d'un des plus grands espaces verts publics de la commune, dont la propriété est partagée entre la mairie et l'université de Limoges.
